--- a/aichan/548002634011273754_2021-07-16_18-10-06.xlsx
+++ b/aichan/548002634011273754_2021-07-16_18-10-06.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5007910549</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-28 03:03:25</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44405.12737268519</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>5007905257</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-28 03:02:57</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44405.12704861111</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -700,10 +712,8 @@
           <t>4926274224</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-28 00:38:28</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44405.02671296296</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -767,10 +777,8 @@
           <t>4926274224</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-27 22:02:42</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44404.91854166667</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -838,10 +846,8 @@
           <t>4926274224</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-27 21:54:38</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44404.91293981481</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -909,10 +915,8 @@
           <t>4926696064</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-27 21:05:25</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44404.87876157407</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -981,10 +985,8 @@
           <t>4922783555</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-25 13:54:33</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44402.57954861111</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1048,10 +1050,8 @@
           <t>4986513217</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-25 12:15:36</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44402.51083333333</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1127,10 +1127,8 @@
           <t>4924580022</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-23 07:09:13</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44400.29806712963</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1198,10 +1196,8 @@
           <t>4922708620</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:47:04</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44399.44935185185</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1265,10 +1261,8 @@
           <t>4964058055</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:46:13</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44399.44876157407</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1332,10 +1326,8 @@
           <t>4953848307</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:36:49</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44397.90056712963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1407,10 +1399,8 @@
           <t>4945983165</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:23:20</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44396.8912037037</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1474,10 +1464,8 @@
           <t>4945983165</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:27:57</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44396.85274305556</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1541,10 +1529,8 @@
           <t>4945976554</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:27:10</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44396.85219907408</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1608,10 +1594,8 @@
           <t>4945556174</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:29:04</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44396.81185185185</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1683,10 +1667,8 @@
           <t>4944890949</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-19 17:59:28</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44396.74962962963</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1762,10 +1744,8 @@
           <t>4942389176</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:17:14</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44396.47030092592</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1825,10 +1805,8 @@
           <t>4941848633</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-19 09:34:37</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44396.39903935185</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1900,10 +1878,8 @@
           <t>4939256066</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-18 21:40:11</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44395.90290509259</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1967,10 +1943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:21:04</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44395.76462962963</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2034,10 +2008,8 @@
           <t>4922783555</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:33:10</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44395.68969907407</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2110,10 +2082,8 @@
           <t>4922783555</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:05:46</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44395.62900462963</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2177,10 +2147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:18:13</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44395.55431712963</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2257,10 +2225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:05:11</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44395.46193287037</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2320,10 +2286,8 @@
           <t>4925218166</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-18 04:20:15</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44395.18072916667</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2399,10 +2363,8 @@
           <t>4925218166</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:27:38</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44395.06085648148</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2468,10 +2430,8 @@
           <t>4925218166</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:11:08</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44395.04939814815</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2535,10 +2495,8 @@
           <t>4925218166</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:59:16</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44395.04115740741</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2617,10 +2575,8 @@
           <t>4925218166</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:57:05</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44395.0396412037</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2696,10 +2652,8 @@
           <t>4925218166</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:34:14</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44395.02377314815</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2764,10 +2718,8 @@
           <t>4925218166</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:25:34</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44395.01775462963</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2843,10 +2795,8 @@
           <t>4925218166</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:24:30</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44395.01701388889</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2922,10 +2872,8 @@
           <t>4932050370</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:59:04</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44394.91601851852</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2989,10 +2937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:43:20</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44394.90509259259</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3060,10 +3006,8 @@
           <t>4926529623</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:25:29</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44394.89269675926</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3158,10 +3102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:24:46</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44394.89219907407</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
@@ -3225,10 +3167,8 @@
           <t>4929633331</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:23:10</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44394.8494212963</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3300,10 +3240,8 @@
           <t>4931273817</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:17:05</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44394.84519675926</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3371,10 +3309,8 @@
           <t>4931147012</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-17 19:59:25</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44394.83292824074</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3447,10 +3383,8 @@
           <t>4922756515</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-17 19:57:41</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44394.83172453703</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3514,10 +3448,8 @@
           <t>4929633331</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-17 19:56:43</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44394.83105324074</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3589,10 +3521,8 @@
           <t>4926685515</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-17 19:56:39</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44394.83100694444</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3661,10 +3591,8 @@
           <t>4929633331</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-17 19:56:35</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44394.83096064815</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3736,10 +3664,8 @@
           <t>4923959513</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-17 19:54:03</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44394.82920138889</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3803,10 +3729,8 @@
           <t>4926645730</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-17 19:53:38</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44394.82891203704</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -3877,10 +3801,8 @@
           <t>4922756515</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-17 19:48:20</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44394.82523148148</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3944,10 +3866,8 @@
           <t>4922756515</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-17 19:32:11</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44394.8140162037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4038,10 +3958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-17 19:12:36</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44394.80041666667</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4105,10 +4023,8 @@
           <t>4923959513</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-17 19:10:57</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44394.79927083333</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4186,10 +4102,8 @@
           <t>4923959513</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-17 18:20:05</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44394.76394675926</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4257,10 +4171,8 @@
           <t>4929358158</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-17 18:04:56</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44394.75342592593</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4324,10 +4236,8 @@
           <t>4930174657</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:45:34</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44394.73997685185</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4395,10 +4305,8 @@
           <t>4926789135</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:43:28</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44394.73851851852</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4466,10 +4374,8 @@
           <t>4929633331</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:26:31</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44394.72674768518</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4564,10 +4470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:22:12</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44394.72375</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
@@ -4631,10 +4535,8 @@
           <t>4929633331</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:21:00</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44394.72291666667</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4706,10 +4608,8 @@
           <t>4923959513</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:15:57</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44394.71940972222</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4785,10 +4685,8 @@
           <t>4929358158</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:15:06</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44394.71881944445</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4864,10 +4762,8 @@
           <t>4923959513</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:55:15</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44394.70503472222</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4932,10 +4828,8 @@
           <t>4929633331</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:50:09</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44394.70149305555</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5013,10 +4907,8 @@
           <t>4923959513</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:35:57</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44394.69163194444</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5088,10 +4980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:29:03</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44394.68684027778</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5151,10 +5041,8 @@
           <t>4929633331</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:28:00</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44394.68611111111</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5226,10 +5114,8 @@
           <t>4929633331</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:26:48</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44394.68527777777</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5301,10 +5187,8 @@
           <t>4928163346</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:24:16</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44394.68351851852</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5376,10 +5260,8 @@
           <t>4929633331</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:22:46</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44394.68247685185</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5455,10 +5337,8 @@
           <t>4923959513</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:21:51</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44394.68184027778</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5522,10 +5402,8 @@
           <t>4929626605</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:21:23</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44394.6815162037</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5603,10 +5481,8 @@
           <t>4923959513</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:08:23</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44394.67248842592</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5678,10 +5554,8 @@
           <t>4923959513</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:07:10</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44394.67164351852</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5753,10 +5627,8 @@
           <t>4928163346</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:51:43</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44394.66091435185</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5832,10 +5704,8 @@
           <t>4929358158</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:36:05</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44394.65005787037</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5902,10 +5772,8 @@
           <t>4923959513</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:29:18</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44394.64534722222</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5969,10 +5837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:47:33</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44394.61635416667</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6036,10 +5902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:44:51</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44394.5728125</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -6103,10 +5967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:28:08</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44394.56120370371</v>
       </c>
       <c r="I78" t="n">
         <v>6</v>
@@ -6178,10 +6040,8 @@
           <t>4926529623</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:22:55</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44394.55758101852</v>
       </c>
       <c r="I79" t="n">
         <v>5</v>
@@ -6249,10 +6109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:20:41</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44394.55603009259</v>
       </c>
       <c r="I80" t="n">
         <v>86</v>
@@ -6328,10 +6186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:09:14</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44394.5480787037</v>
       </c>
       <c r="I81" t="n">
         <v>3</v>
@@ -6407,10 +6263,8 @@
           <t>4925190294</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:06:34</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44394.54622685185</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6478,10 +6332,8 @@
           <t>4925190294</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:57:37</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44394.54001157408</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6557,10 +6409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:49:49</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44394.53459490741</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
@@ -6636,10 +6486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:38:43</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44394.52688657407</v>
       </c>
       <c r="I85" t="n">
         <v>166</v>
@@ -6715,10 +6563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:27:59</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44394.51943287037</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6786,10 +6632,8 @@
           <t>4928163346</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:27:28</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44394.51907407407</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6865,10 +6709,8 @@
           <t>4928132363</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:22:58</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44394.51594907408</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6936,10 +6778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:11:27</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44394.50795138889</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -7003,10 +6843,8 @@
           <t>4927989774</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:04:39</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44394.50322916666</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7070,10 +6908,8 @@
           <t>4922779326</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:01:53</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44394.50130787037</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7145,10 +6981,8 @@
           <t>4924390969</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:57:09</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44394.49802083334</v>
       </c>
       <c r="I92" t="n">
         <v>9</v>
@@ -7220,10 +7054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:51:14</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44394.49391203704</v>
       </c>
       <c r="I93" t="n">
         <v>2</v>
@@ -7295,10 +7127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:48:15</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44394.49184027778</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7374,10 +7204,8 @@
           <t>4927865078</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:45:39</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44394.49003472222</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7453,10 +7281,8 @@
           <t>4927797635</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:36:44</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44394.48384259259</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7526,10 +7352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:22:30</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44394.47395833334</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7601,10 +7425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:18:04</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44394.47087962963</v>
       </c>
       <c r="I98" t="n">
         <v>4</v>
@@ -7682,10 +7504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:16:34</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44394.46983796296</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7779,10 +7599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:15:42</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44394.46923611111</v>
       </c>
       <c r="I100" t="n">
         <v>2</v>
@@ -7854,10 +7672,8 @@
           <t>4927638869</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:13:12</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44394.4675</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7925,10 +7741,8 @@
           <t>4922903280</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:11:43</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44394.46646990741</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7992,10 +7806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:07:59</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44394.46387731482</v>
       </c>
       <c r="I103" t="n">
         <v>4</v>
@@ -8063,10 +7875,8 @@
           <t>4925743688</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-17 10:43:49</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44394.44709490741</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8134,10 +7944,8 @@
           <t>4927383084</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-17 10:33:33</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44394.43996527778</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8209,10 +8017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-17 10:33:00</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44394.43958333333</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8276,10 +8082,8 @@
           <t>4927222195</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-17 10:05:39</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44394.42059027778</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8351,10 +8155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-17 10:05:02</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44394.42016203704</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8426,10 +8228,8 @@
           <t>4925656637</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:52:09</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44394.41121527777</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8505,10 +8305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:45:48</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44394.40680555555</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8572,10 +8370,8 @@
           <t>4925656637</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:45:43</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44394.40674768519</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8651,10 +8447,8 @@
           <t>4927071403</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:37:51</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44394.40128472223</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8722,10 +8516,8 @@
           <t>4927070227</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:37:09</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44394.40079861111</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8789,10 +8581,8 @@
           <t>4927038051</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:30:25</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44394.39612268518</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8868,10 +8658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:28:39</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44394.39489583333</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8939,10 +8727,8 @@
           <t>4925656637</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:24:21</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44394.39190972222</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -9018,10 +8804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:21:55</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44394.39021990741</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9097,10 +8881,8 @@
           <t>4925656637</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:16:08</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44394.3862037037</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9176,10 +8958,8 @@
           <t>4925656637</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:05:25</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44394.37876157407</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9255,10 +9035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:59:04</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44394.37435185185</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9318,10 +9096,8 @@
           <t>4925656637</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:56:02</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44394.37224537037</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9397,10 +9173,8 @@
           <t>4925743795</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:36:27</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44394.35864583333</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9472,10 +9246,8 @@
           <t>4926789135</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:35:53</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44394.35825231481</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9547,10 +9319,8 @@
           <t>4925656637</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:31:50</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44394.35543981481</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -9622,10 +9392,8 @@
           <t>4926749222</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:27:02</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44394.35210648148</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9697,10 +9465,8 @@
           <t>4926744809</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:24:43</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44394.35049768518</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9776,10 +9542,8 @@
           <t>4926697235</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:21:10</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44394.3480324074</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9851,10 +9615,8 @@
           <t>4926697235</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:17:57</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44394.34579861111</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9926,10 +9688,8 @@
           <t>4926697235</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:11:19</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44394.34119212963</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9997,10 +9757,8 @@
           <t>4926696064</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:09:09</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44394.3396875</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10072,10 +9830,8 @@
           <t>4926685515</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:07:39</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44394.33864583333</v>
       </c>
       <c r="I131" t="n">
         <v>3</v>
@@ -10147,10 +9903,8 @@
           <t>4926641879</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-17 07:55:40</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44394.33032407407</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10218,10 +9972,8 @@
           <t>4926645730</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-17 07:55:16</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44394.33004629629</v>
       </c>
       <c r="I133" t="n">
         <v>11</v>
@@ -10290,10 +10042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-17 07:44:44</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44394.32273148148</v>
       </c>
       <c r="I134" t="n">
         <v>6</v>
@@ -10361,10 +10111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-17 07:28:17</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44394.31130787037</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10432,10 +10180,8 @@
           <t>4925277794</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-17 07:23:14</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44394.30780092593</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10499,10 +10245,8 @@
           <t>4926550648</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-17 07:22:49</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44394.30751157407</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10566,10 +10310,8 @@
           <t>4926548218</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-17 07:21:33</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44394.30663194445</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10637,10 +10379,8 @@
           <t>4926529623</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-17 07:16:35</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44394.30318287037</v>
       </c>
       <c r="I139" t="n">
         <v>13</v>
@@ -10712,10 +10452,8 @@
           <t>4926465982</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-17 06:39:08</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44394.27717592593</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10779,10 +10517,8 @@
           <t>4926418832</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-17 06:04:21</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44394.25302083333</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10858,10 +10594,8 @@
           <t>4926370435</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-17 05:00:47</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44394.20887731481</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10933,10 +10667,8 @@
           <t>4926274224</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-17 03:38:45</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44394.15190972222</v>
       </c>
       <c r="I143" t="n">
         <v>6</v>
@@ -11000,10 +10732,8 @@
           <t>4926252789</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-17 03:21:58</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44394.14025462963</v>
       </c>
       <c r="I144" t="n">
         <v>2</v>
@@ -11079,10 +10809,8 @@
           <t>4922783555</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-17 02:56:54</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44394.12284722222</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11149,10 +10877,8 @@
           <t>4925852109</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-17 02:36:46</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44394.10886574074</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11228,10 +10954,8 @@
           <t>4924197701</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-17 02:12:32</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44394.09203703704</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11295,10 +11019,8 @@
           <t>4926080527</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-17 02:02:57</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44394.08538194445</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11366,10 +11088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:56:27</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44394.08086805556</v>
       </c>
       <c r="I149" t="n">
         <v>14</v>
@@ -11437,10 +11157,8 @@
           <t>4926011506</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:41:34</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44394.07053240741</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11504,10 +11222,8 @@
           <t>4926010473</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:40:41</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44394.06991898148</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11571,10 +11287,8 @@
           <t>4926005805</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:40:34</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44394.06983796296</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11638,10 +11352,8 @@
           <t>4925975581</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:32:24</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44394.06416666666</v>
       </c>
       <c r="I153" t="n">
         <v>2</v>
@@ -11709,10 +11421,8 @@
           <t>4925453308</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:30:06</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44394.06256944445</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -11788,10 +11498,8 @@
           <t>4925668001</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:29:23</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44394.06207175926</v>
       </c>
       <c r="I155" t="n">
         <v>5</v>
@@ -11867,10 +11575,8 @@
           <t>4925956509</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:27:54</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44394.06104166667</v>
       </c>
       <c r="I156" t="n">
         <v>4</v>
@@ -11942,10 +11648,8 @@
           <t>4925840398</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:23:02</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44394.05766203703</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12013,10 +11717,8 @@
           <t>4925895851</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:13:05</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44394.05075231481</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12088,10 +11790,8 @@
           <t>4925895360</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:12:46</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44394.0505324074</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12159,10 +11859,8 @@
           <t>4925218166</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:12:21</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44394.05024305556</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12226,10 +11924,8 @@
           <t>4925855134</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:04:41</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44394.04491898148</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12297,10 +11993,8 @@
           <t>4925852109</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:04:09</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44394.04454861111</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12376,10 +12070,8 @@
           <t>4925840398</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:04:03</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44394.04447916667</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12448,10 +12140,8 @@
           <t>4925838239</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:03:11</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44394.04387731481</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12549,10 +12239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:03:05</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44394.04380787037</v>
       </c>
       <c r="I165" t="n">
         <v>16</v>
@@ -12616,10 +12304,8 @@
           <t>4925840398</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:01:50</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44394.04293981481</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12687,10 +12373,8 @@
           <t>4925838239</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:01:46</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44394.04289351852</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12759,10 +12443,8 @@
           <t>4925828275</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:00:33</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44394.04204861111</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12834,10 +12516,8 @@
           <t>4925821264</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:57:32</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44394.0399537037</v>
       </c>
       <c r="I169" t="n">
         <v>2</v>
@@ -12905,10 +12585,8 @@
           <t>4925277794</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:52:09</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44394.03621527777</v>
       </c>
       <c r="I170" t="n">
         <v>4</v>
@@ -12984,10 +12662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:51:07</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44394.03549768519</v>
       </c>
       <c r="I171" t="n">
         <v>13</v>
@@ -13051,10 +12727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:50:07</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44394.03480324074</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13122,10 +12796,8 @@
           <t>4925767676</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:48:48</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44394.03388888889</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13193,10 +12865,8 @@
           <t>4925751700</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:47:45</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44394.03315972222</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13264,10 +12934,8 @@
           <t>4925218166</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:46:24</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44394.03222222222</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13335,10 +13003,8 @@
           <t>4925752324</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:45:51</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44394.03184027778</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13402,10 +13068,8 @@
           <t>4925751700</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:45:31</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44394.03160879629</v>
       </c>
       <c r="I177" t="n">
         <v>2</v>
@@ -13469,10 +13133,8 @@
           <t>4925744028</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:44:29</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44394.03089120371</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13536,10 +13198,8 @@
           <t>4925743795</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:44:22</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44394.03081018518</v>
       </c>
       <c r="I179" t="n">
         <v>3</v>
@@ -13615,10 +13275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:44:10</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44394.0306712963</v>
       </c>
       <c r="I180" t="n">
         <v>2</v>
@@ -13690,10 +13348,8 @@
           <t>4925734550</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:42:17</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44394.02936342593</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13762,10 +13418,8 @@
           <t>4925733318</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:41:38</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44394.02891203704</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13834,10 +13488,8 @@
           <t>4925723084</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:40:58</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44394.02844907407</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
@@ -13906,10 +13558,8 @@
           <t>4925218166</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:35:59</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44394.02498842592</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13973,10 +13623,8 @@
           <t>4924780434</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:33:50</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44394.02349537037</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14048,10 +13696,8 @@
           <t>4925668001</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:31:00</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44394.02152777778</v>
       </c>
       <c r="I186" t="n">
         <v>4</v>
@@ -14119,10 +13765,8 @@
           <t>4925218166</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:30:50</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44394.02141203704</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14190,10 +13834,8 @@
           <t>4925659813</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:29:59</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44394.02082175926</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14261,10 +13903,8 @@
           <t>4925218166</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:29:42</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44394.020625</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14333,10 +13973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:29:30</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44394.02048611111</v>
       </c>
       <c r="I190" t="n">
         <v>241</v>
@@ -14411,10 +14049,8 @@
           <t>4925656637</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:28:31</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44394.01980324074</v>
       </c>
       <c r="I191" t="n">
         <v>5</v>
@@ -14483,10 +14119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:25:31</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44394.01771990741</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14570,10 +14204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:20:58</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44394.01456018518</v>
       </c>
       <c r="I193" t="n">
         <v>18</v>
@@ -14637,10 +14269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:18:39</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44394.01295138889</v>
       </c>
       <c r="I194" t="n">
         <v>11</v>
@@ -14708,10 +14338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:15:06</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44394.01048611111</v>
       </c>
       <c r="I195" t="n">
         <v>12</v>
@@ -14775,10 +14403,8 @@
           <t>4925565112</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:14:38</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44394.01016203704</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14860,10 +14486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:12:11</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44394.00846064815</v>
       </c>
       <c r="I197" t="n">
         <v>15</v>
@@ -14941,10 +14565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:12:06</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44394.00840277778</v>
       </c>
       <c r="I198" t="n">
         <v>21</v>
@@ -15016,10 +14638,8 @@
           <t>4925533282</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:10:56</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44394.00759259259</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15095,10 +14715,8 @@
           <t>4922756439</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:07:58</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44394.00553240741</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15174,10 +14792,8 @@
           <t>4925499450</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:05:57</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44394.00413194444</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15254,10 +14870,8 @@
           <t>4925453308</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:59:28</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44393.99962962963</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -15322,10 +14936,8 @@
           <t>4925449592</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:59:05</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44393.99936342592</v>
       </c>
       <c r="I203" t="n">
         <v>3</v>
@@ -15389,10 +15001,8 @@
           <t>4925450968</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:58:32</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44393.99898148148</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15464,10 +15074,8 @@
           <t>4925441564</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:57:32</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44393.99828703704</v>
       </c>
       <c r="I205" t="n">
         <v>5</v>
@@ -15536,10 +15144,8 @@
           <t>4925434341</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:57:02</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44393.99793981481</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15603,10 +15209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:56:07</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44393.99730324074</v>
       </c>
       <c r="I207" t="n">
         <v>18</v>
@@ -15675,10 +15279,8 @@
           <t>4925421559</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:54:47</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44393.99637731481</v>
       </c>
       <c r="I208" t="n">
         <v>3</v>
@@ -15742,10 +15344,8 @@
           <t>4925377164</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:49:05</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44393.99241898148</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15814,10 +15414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:48:52</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44393.99226851852</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15885,10 +15483,8 @@
           <t>4925355979</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:46:00</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44393.99027777778</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -15964,10 +15560,8 @@
           <t>4925300514</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:38:17</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44393.98491898148</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -16031,10 +15625,8 @@
           <t>4925277794</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:36:16</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44393.98351851852</v>
       </c>
       <c r="I213" t="n">
         <v>19</v>
@@ -16098,10 +15690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:35:58</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44393.98331018518</v>
       </c>
       <c r="I214" t="n">
         <v>10</v>
@@ -16170,10 +15760,8 @@
           <t>4925233283</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:30:53</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44393.9797800926</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16241,10 +15829,8 @@
           <t>4925219923</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:29:33</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44393.97885416666</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16312,10 +15898,8 @@
           <t>4925222239</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:29:08</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44393.97856481482</v>
       </c>
       <c r="I217" t="n">
         <v>3</v>
@@ -16384,10 +15968,8 @@
           <t>4925218166</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:28:52</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44393.97837962963</v>
       </c>
       <c r="I218" t="n">
         <v>2</v>
@@ -16455,10 +16037,8 @@
           <t>4925190294</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:25:05</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44393.97575231481</v>
       </c>
       <c r="I219" t="n">
         <v>2</v>
@@ -16528,10 +16108,8 @@
           <t>4925153792</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:21:09</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44393.97302083333</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16595,10 +16173,8 @@
           <t>4925115260</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:16:07</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44393.96952546296</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16670,10 +16246,8 @@
           <t>4925115153</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:16:05</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44393.96950231482</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16737,10 +16311,8 @@
           <t>4925080565</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:13:25</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44393.96765046296</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16808,10 +16380,8 @@
           <t>4925080565</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:12:24</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44393.96694444444</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16883,10 +16453,8 @@
           <t>4925057618</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:09:46</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44393.96511574074</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16950,10 +16518,8 @@
           <t>4925056368</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:09:21</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44393.96482638889</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17025,10 +16591,8 @@
           <t>4925017796</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:05:40</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44393.96226851852</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17100,10 +16664,8 @@
           <t>4924980351</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:00:53</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44393.95894675926</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17179,10 +16741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:00:17</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44393.95853009259</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17250,10 +16810,8 @@
           <t>4923638701</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:59:29</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44393.95797453704</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17321,10 +16879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:59:07</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44393.9577199074</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17400,10 +16956,8 @@
           <t>4924960292</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:58:54</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44393.95756944444</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17475,10 +17029,8 @@
           <t>4924956511</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:58:08</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44393.95703703703</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17547,10 +17099,8 @@
           <t>4924955616</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:57:51</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44393.95684027778</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17618,10 +17168,8 @@
           <t>4924939894</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:57:10</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44393.95636574074</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17689,10 +17237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:52:46</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44393.95331018518</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17764,10 +17310,8 @@
           <t>4924821668</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:42:27</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44393.94614583333</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17841,10 +17385,8 @@
           <t>4924666355</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:37:43</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44393.9428587963</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17912,10 +17454,8 @@
           <t>4924780434</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:37:22</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44393.94261574074</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -17987,10 +17527,8 @@
           <t>4924746779</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:34:05</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44393.94033564815</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18054,10 +17592,8 @@
           <t>4924724504</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:32:12</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44393.93902777778</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18125,10 +17661,8 @@
           <t>4924719325</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:31:37</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44393.93862268519</v>
       </c>
       <c r="I242" t="n">
         <v>3</v>
@@ -18192,10 +17726,8 @@
           <t>4924727194</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:31:17</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44393.9383912037</v>
       </c>
       <c r="I243" t="n">
         <v>10</v>
@@ -18263,10 +17795,8 @@
           <t>4924714382</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:30:21</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44393.93774305555</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18338,10 +17868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:28:18</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44393.93631944444</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18413,10 +17941,8 @@
           <t>4923638701</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:27:17</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44393.93561342593</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18480,10 +18006,8 @@
           <t>4924666355</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:24:17</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44393.9335300926</v>
       </c>
       <c r="I247" t="n">
         <v>2</v>
@@ -18547,10 +18071,8 @@
           <t>4923374589</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:20:38</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44393.93099537037</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18626,10 +18148,8 @@
           <t>4924618337</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:19:37</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44393.93028935185</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18705,10 +18225,8 @@
           <t>4924625392</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:19:30</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44393.93020833333</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18772,10 +18290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:19:20</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44393.93009259259</v>
       </c>
       <c r="I251" t="n">
         <v>2</v>
@@ -18851,10 +18367,8 @@
           <t>4924361594</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:15:42</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44393.92756944444</v>
       </c>
       <c r="I252" t="n">
         <v>2</v>
@@ -18922,10 +18436,8 @@
           <t>4924580022</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:14:15</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44393.9265625</v>
       </c>
       <c r="I253" t="n">
         <v>47</v>
@@ -18991,10 +18503,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:08:34</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44393.92261574074</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -19059,10 +18569,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:07:22</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44393.92178240741</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19126,10 +18634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:01:45</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44393.91788194444</v>
       </c>
       <c r="I256" t="n">
         <v>10</v>
@@ -19193,10 +18699,8 @@
           <t>4924425339</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:56:55</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44393.91452546296</v>
       </c>
       <c r="I257" t="n">
         <v>4</v>
@@ -19260,10 +18764,8 @@
           <t>4924394457</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:54:02</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44393.91252314814</v>
       </c>
       <c r="I258" t="n">
         <v>3</v>
@@ -19331,10 +18833,8 @@
           <t>4924390969</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:52:47</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44393.91165509259</v>
       </c>
       <c r="I259" t="n">
         <v>68</v>
@@ -19402,10 +18902,8 @@
           <t>4924382058</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:51:33</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44393.91079861111</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19481,10 +18979,8 @@
           <t>4924362245</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:49:38</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44393.9094675926</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19560,10 +19056,8 @@
           <t>4924361594</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:49:23</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44393.90929398148</v>
       </c>
       <c r="I262" t="n">
         <v>7</v>
@@ -19631,10 +19125,8 @@
           <t>4924361228</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:49:14</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44393.90918981482</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19710,10 +19202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:45:23</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44393.9065162037</v>
       </c>
       <c r="I264" t="n">
         <v>7</v>
@@ -19781,10 +19271,8 @@
           <t>4924323538</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:44:46</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44393.90608796296</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19876,10 +19364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:43:35</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44393.90526620371</v>
       </c>
       <c r="I266" t="n">
         <v>15</v>
@@ -19947,10 +19433,8 @@
           <t>4923374589</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:42:53</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44393.90478009259</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20014,10 +19498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:42:00</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44393.90416666667</v>
       </c>
       <c r="I268" t="n">
         <v>9</v>
@@ -20085,10 +19567,8 @@
           <t>4924305890</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:42:00</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44393.90416666667</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20152,10 +19632,8 @@
           <t>4923374589</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:40:37</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44393.90320601852</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20220,10 +19698,8 @@
           <t>4924273102</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:38:22</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44393.90164351852</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20291,10 +19767,8 @@
           <t>4924260350</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:36:29</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44393.90033564815</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20381,10 +19855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:33:55</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44393.89855324074</v>
       </c>
       <c r="I273" t="n">
         <v>8</v>
@@ -20448,10 +19920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:32:17</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44393.89741898148</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20523,10 +19993,8 @@
           <t>4924197701</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:29:15</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44393.8953125</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20602,10 +20070,8 @@
           <t>4923105299</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:26:20</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44393.89328703703</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20677,10 +20143,8 @@
           <t>4923509112</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:24:09</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44393.89177083333</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20749,10 +20213,8 @@
           <t>4924148709</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:23:18</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44393.89118055555</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20812,10 +20274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:21:20</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44393.88981481481</v>
       </c>
       <c r="I279" t="n">
         <v>3</v>
@@ -20883,10 +20343,8 @@
           <t>4924101655</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:17:18</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44393.88701388889</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20962,10 +20420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:15:37</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44393.88584490741</v>
       </c>
       <c r="I281" t="n">
         <v>680</v>
@@ -21041,10 +20497,8 @@
           <t>4924080039</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:13:59</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44393.88471064815</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21112,10 +20566,8 @@
           <t>4924075139</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:13:13</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44393.88417824074</v>
       </c>
       <c r="I283" t="n">
         <v>7</v>
@@ -21210,10 +20662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:12:28</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44393.88365740741</v>
       </c>
       <c r="I284" t="n">
         <v>29</v>
@@ -21277,10 +20727,8 @@
           <t>4923835847</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:06:23</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44393.87943287037</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21349,10 +20797,8 @@
           <t>4923835847</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:05:13</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44393.87862268519</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21421,10 +20867,8 @@
           <t>4923835847</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:03:50</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44393.87766203703</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21488,10 +20932,8 @@
           <t>4923992430</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:03:37</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44393.87751157407</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21555,10 +20997,8 @@
           <t>4923986031</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:02:42</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44393.876875</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21626,10 +21066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:02:06</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44393.87645833333</v>
       </c>
       <c r="I290" t="n">
         <v>4</v>
@@ -21693,10 +21131,8 @@
           <t>4923976674</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:01:20</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44393.87592592592</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21760,10 +21196,8 @@
           <t>4923959513</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:00:27</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44393.8753125</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21835,10 +21269,8 @@
           <t>4923963378</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:00:03</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44393.87503472222</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21914,10 +21346,8 @@
           <t>4923835847</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:59:57</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44393.87496527778</v>
       </c>
       <c r="I294" t="n">
         <v>3</v>
@@ -21982,10 +21412,8 @@
           <t>4923835847</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:59:15</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44393.87447916667</v>
       </c>
       <c r="I295" t="n">
         <v>6</v>
@@ -22049,10 +21477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:52:30</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44393.86979166666</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22116,10 +21542,8 @@
           <t>4923898995</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:52:11</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44393.86957175926</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22195,10 +21619,8 @@
           <t>4923835847</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:51:23</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44393.8690162037</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22274,10 +21696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:50:51</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44393.86864583333</v>
       </c>
       <c r="I299" t="n">
         <v>15</v>
@@ -22354,10 +21774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:46:56</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44393.86592592593</v>
       </c>
       <c r="I300" t="n">
         <v>30</v>
@@ -22425,10 +21843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:46:49</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44393.86584490741</v>
       </c>
       <c r="I301" t="n">
         <v>12</v>
@@ -22496,10 +21912,8 @@
           <t>4923852457</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:46:18</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44393.86548611111</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22571,10 +21985,8 @@
           <t>4923835847</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:43:52</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44393.8637962963</v>
       </c>
       <c r="I303" t="n">
         <v>6</v>
@@ -22642,10 +22054,8 @@
           <t>4923803070</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:40:12</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44393.86125</v>
       </c>
       <c r="I304" t="n">
         <v>8</v>
@@ -22713,10 +22123,8 @@
           <t>4923783628</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:38:03</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44393.85975694445</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22780,10 +22188,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:31:58</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44393.8555324074</v>
       </c>
       <c r="I306" t="n">
         <v>2</v>
@@ -22852,10 +22258,8 @@
           <t>4923099230</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:31:02</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44393.85488425926</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22923,10 +22327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:29:16</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44393.85365740741</v>
       </c>
       <c r="I308" t="n">
         <v>15</v>
@@ -23000,10 +22402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:29:05</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44393.85353009259</v>
       </c>
       <c r="I309" t="n">
         <v>54</v>
@@ -23072,10 +22472,8 @@
           <t>4923685561</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:24:06</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44393.85006944444</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23147,10 +22545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:23:45</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44393.84982638889</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23214,10 +22610,8 @@
           <t>4923638701</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:19:03</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44393.8465625</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23285,10 +22679,8 @@
           <t>4923636322</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:18:04</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44393.84587962963</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23356,10 +22748,8 @@
           <t>4923624467</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:17:36</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44393.84555555556</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23427,10 +22817,8 @@
           <t>4923624467</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:17:16</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44393.84532407407</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23498,10 +22886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:16:49</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44393.84501157407</v>
       </c>
       <c r="I316" t="n">
         <v>68</v>
@@ -23577,10 +22963,8 @@
           <t>4923618262</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:16:30</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44393.84479166667</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23656,10 +23040,8 @@
           <t>4923509112</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:15:51</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44393.84434027778</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23727,10 +23109,8 @@
           <t>4922867378</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:14:40</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44393.84351851852</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23794,10 +23174,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:14:09</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44393.84315972222</v>
       </c>
       <c r="I320" t="n">
         <v>4</v>
@@ -23865,10 +23243,8 @@
           <t>4923598811</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:13:47</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44393.84290509259</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23940,10 +23316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:13:20</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44393.84259259259</v>
       </c>
       <c r="I322" t="n">
         <v>5</v>
@@ -24019,10 +23393,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:11:07</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44393.84105324074</v>
       </c>
       <c r="I323" t="n">
         <v>5</v>
@@ -24090,10 +23462,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:11:06</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44393.84104166667</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24169,10 +23539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:10:32</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44393.84064814815</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24236,10 +23604,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:10:21</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44393.84052083334</v>
       </c>
       <c r="I326" t="n">
         <v>5</v>
@@ -24307,10 +23673,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:09:34</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44393.83997685185</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24386,10 +23750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:09:22</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44393.83983796297</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24457,10 +23819,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:07:17</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44393.8383912037</v>
       </c>
       <c r="I329" t="n">
         <v>2</v>
@@ -24528,10 +23888,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:07:05</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44393.83825231482</v>
       </c>
       <c r="I330" t="n">
         <v>3</v>
@@ -24599,10 +23957,8 @@
           <t>4923550754</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:06:56</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44393.83814814815</v>
       </c>
       <c r="I331" t="n">
         <v>6</v>
@@ -24670,10 +24026,8 @@
           <t>4923099230</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:06:31</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44393.83785879629</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24745,10 +24099,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:06:08</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44393.83759259259</v>
       </c>
       <c r="I333" t="n">
         <v>3</v>
@@ -24816,10 +24168,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:05:50</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44393.83738425926</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24895,10 +24245,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:04:44</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44393.83662037037</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24974,10 +24322,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:03:33</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44393.83579861111</v>
       </c>
       <c r="I336" t="n">
         <v>5</v>
@@ -25045,10 +24391,8 @@
           <t>4923509112</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:02:44</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44393.83523148148</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25117,10 +24461,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:00:25</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44393.83362268518</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25196,10 +24538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:56:50</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44393.83113425926</v>
       </c>
       <c r="I339" t="n">
         <v>9</v>
@@ -25263,10 +24603,8 @@
           <t>4923464447</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:56:45</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44393.83107638889</v>
       </c>
       <c r="I340" t="n">
         <v>2</v>
@@ -25334,10 +24672,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:56:33</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44393.8309375</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25413,10 +24749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:55:02</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44393.82988425926</v>
       </c>
       <c r="I342" t="n">
         <v>8</v>
@@ -25492,10 +24826,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:54:24</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44393.82944444445</v>
       </c>
       <c r="I343" t="n">
         <v>3</v>
@@ -25563,10 +24895,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:52:54</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44393.82840277778</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25642,10 +24972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:51:21</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44393.82732638889</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25709,10 +25037,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:50:54</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44393.82701388889</v>
       </c>
       <c r="I346" t="n">
         <v>4</v>
@@ -25780,10 +25106,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:47:39</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44393.82475694444</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25859,10 +25183,8 @@
           <t>4923390336</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:46:08</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44393.8237037037</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25938,10 +25260,8 @@
           <t>4923374589</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:45:18</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44393.823125</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26017,10 +25337,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:45:03</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44393.82295138889</v>
       </c>
       <c r="I350" t="n">
         <v>3</v>
@@ -26088,10 +25406,8 @@
           <t>4923373703</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:44:57</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44393.82288194444</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26163,10 +25479,8 @@
           <t>4923380275</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:44:14</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44393.82238425926</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26242,10 +25556,8 @@
           <t>4923369111</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:43:42</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44393.82201388889</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26323,10 +25635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:37:06</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44393.81743055556</v>
       </c>
       <c r="I354" t="n">
         <v>13</v>
@@ -26394,10 +25704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:35:53</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44393.81658564815</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26473,10 +25781,8 @@
           <t>4923299783</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:35:26</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44393.81627314815</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26552,10 +25858,8 @@
           <t>4923299728</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:35:24</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44393.81625</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26627,10 +25931,8 @@
           <t>4922903280</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:34:03</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44393.8153125</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26706,10 +26008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:33:45</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44393.81510416666</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26781,10 +26081,8 @@
           <t>4923211171</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:32:57</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44393.81454861111</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26860,10 +26158,8 @@
           <t>4923277482</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:31:29</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44393.81353009259</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26927,10 +26223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:31:06</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44393.81326388889</v>
       </c>
       <c r="I362" t="n">
         <v>12</v>
@@ -26994,10 +26288,8 @@
           <t>4923096730</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:29:41</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44393.81228009259</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27065,10 +26357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:29:11</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44393.81193287037</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27132,10 +26422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:27:50</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44393.81099537037</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27203,10 +26491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:27:21</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44393.81065972222</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27270,10 +26556,8 @@
           <t>4923250703</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:27:18</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44393.810625</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27341,10 +26625,8 @@
           <t>4923013671</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:26:42</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44393.81020833334</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27412,10 +26694,8 @@
           <t>4923013671</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:25:21</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44393.80927083334</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27483,10 +26763,8 @@
           <t>4923216110</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:23:12</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44393.80777777778</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27562,10 +26840,8 @@
           <t>4923211171</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:22:57</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44393.80760416666</v>
       </c>
       <c r="I371" t="n">
         <v>2</v>
@@ -27641,10 +26917,8 @@
           <t>4923205965</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:21:19</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44393.80646990741</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27712,10 +26986,8 @@
           <t>4923200664</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:20:53</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44393.80616898148</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27783,10 +27055,8 @@
           <t>4923013671</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:19:36</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44393.80527777778</v>
       </c>
       <c r="I374" t="n">
         <v>2</v>
@@ -27858,10 +27128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:18:03</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44393.80420138889</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27938,10 +27206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:17:37</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44393.80390046296</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -28001,10 +27267,8 @@
           <t>4923013671</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:17:15</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44393.80364583333</v>
       </c>
       <c r="I377" t="n">
         <v>2</v>
@@ -28072,10 +27336,8 @@
           <t>4923140158</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:16:28</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44393.80310185185</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28143,10 +27405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:15:30</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44393.80243055556</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28224,10 +27484,8 @@
           <t>4923140882</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:13:21</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44393.8009375</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28287,10 +27545,8 @@
           <t>4923140158</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:13:04</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44393.80074074074</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28366,10 +27622,8 @@
           <t>4923135888</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:12:33</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44393.80038194444</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28429,10 +27683,8 @@
           <t>4923130931</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:11:52</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44393.79990740741</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28510,10 +27762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:11:05</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44393.79936342593</v>
       </c>
       <c r="I384" t="n">
         <v>10</v>
@@ -28589,10 +27839,8 @@
           <t>4923118415</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:10:56</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44393.79925925926</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28664,10 +27912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:10:55</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44393.79924768519</v>
       </c>
       <c r="I386" t="n">
         <v>9</v>
@@ -28749,10 +27995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:10:48</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44393.79916666666</v>
       </c>
       <c r="I387" t="n">
         <v>8</v>
@@ -28837,10 +28081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:10:43</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44393.79910879629</v>
       </c>
       <c r="I388" t="n">
         <v>8</v>
@@ -28937,10 +28179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:10:18</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44393.79881944445</v>
       </c>
       <c r="I389" t="n">
         <v>4</v>
@@ -29021,10 +28261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:10:14</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44393.79877314815</v>
       </c>
       <c r="I390" t="n">
         <v>8</v>
@@ -29100,10 +28338,8 @@
           <t>4923112167</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:10:08</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44393.7987037037</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29171,10 +28407,8 @@
           <t>4923096730</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:09:47</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44393.79846064815</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29250,10 +28484,8 @@
           <t>4923099230</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:09:03</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44393.79795138889</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29321,10 +28553,8 @@
           <t>4923105299</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:08:47</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44393.7977662037</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29392,10 +28622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:08:14</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44393.79738425926</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29463,10 +28691,8 @@
           <t>4923105299</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:08:12</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44393.79736111111</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29538,10 +28764,8 @@
           <t>4923096730</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:08:10</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44393.79733796296</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29609,10 +28833,8 @@
           <t>4922894613</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:08:05</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44393.79728009259</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29680,10 +28902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:07:27</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44393.79684027778</v>
       </c>
       <c r="I399" t="n">
         <v>3</v>
@@ -29755,10 +28975,8 @@
           <t>4923088730</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:07:26</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44393.7968287037</v>
       </c>
       <c r="I400" t="n">
         <v>2</v>
@@ -29830,10 +29048,8 @@
           <t>4922720920</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:07:10</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44393.79664351852</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29901,10 +29117,8 @@
           <t>4922765833</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:06:17</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44393.79603009259</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29980,10 +29194,8 @@
           <t>4923081293</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:06:13</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44393.7959837963</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30059,10 +29271,8 @@
           <t>4923065712</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:04:17</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44393.79464120371</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30131,10 +29341,8 @@
           <t>4922756515</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:03:14</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44393.79391203704</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30198,10 +29406,8 @@
           <t>4922825399</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:03:12</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44393.79388888889</v>
       </c>
       <c r="I406" t="n">
         <v>7</v>
@@ -30277,10 +29483,8 @@
           <t>4922867378</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:02:52</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44393.7936574074</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30352,10 +29556,8 @@
           <t>4923056102</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:02:42</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44393.79354166667</v>
       </c>
       <c r="I408" t="n">
         <v>3</v>
@@ -30431,10 +29633,8 @@
           <t>4923033221</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:01:34</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44393.79275462963</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30498,10 +29698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:00:37</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44393.79209490741</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30569,10 +29767,8 @@
           <t>4923033972</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:00:33</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44393.79204861111</v>
       </c>
       <c r="I411" t="n">
         <v>25</v>
@@ -30636,10 +29832,8 @@
           <t>4923033221</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:00:18</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44393.791875</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30715,10 +29909,8 @@
           <t>4923033206</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:00:18</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44393.791875</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30790,10 +29982,8 @@
           <t>4922884156</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:59:58</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44393.79164351852</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30869,10 +30059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:59:51</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44393.7915625</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30948,10 +30136,8 @@
           <t>4922765833</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:59:45</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44393.79149305556</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -31027,10 +30213,8 @@
           <t>4922978031</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:58:41</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44393.79075231482</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -31110,10 +30294,8 @@
           <t>4923013671</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:58:28</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44393.79060185186</v>
       </c>
       <c r="I418" t="n">
         <v>4</v>
@@ -31189,10 +30371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:57:25</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44393.78987268519</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31265,10 +30445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:57:12</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44393.78972222222</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31336,10 +30514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:57:04</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44393.78962962963</v>
       </c>
       <c r="I421" t="n">
         <v>2</v>
@@ -31415,10 +30591,8 @@
           <t>4922999443</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:56:54</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44393.78951388889</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31487,10 +30661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:56:53</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44393.78950231482</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31554,10 +30726,8 @@
           <t>4922998806</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:56:40</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44393.78935185185</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31621,10 +30791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:56:06</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44393.78895833333</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31692,10 +30860,8 @@
           <t>4922997303</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:56:06</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44393.78895833333</v>
       </c>
       <c r="I426" t="n">
         <v>2</v>
@@ -31771,10 +30937,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:55:35</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44393.78859953704</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31842,10 +31006,8 @@
           <t>4922959936</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:55:27</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44393.78850694445</v>
       </c>
       <c r="I428" t="n">
         <v>5</v>
@@ -31917,10 +31079,8 @@
           <t>4922720920</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:55:21</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44393.7884375</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31996,10 +31156,8 @@
           <t>4922978031</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:55:13</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44393.78834490741</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32067,10 +31225,8 @@
           <t>4922720920</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:54:36</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44393.78791666667</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -32146,10 +31302,8 @@
           <t>4922985213</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:54:13</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44393.78765046296</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32213,10 +31367,8 @@
           <t>4922978031</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:54:11</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44393.78762731481</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -32292,10 +31444,8 @@
           <t>4922985213</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:53:45</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44393.78732638889</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32371,10 +31521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:53:41</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44393.78728009259</v>
       </c>
       <c r="I435" t="n">
         <v>3</v>
@@ -32443,10 +31591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:53:28</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44393.78712962963</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32514,10 +31660,8 @@
           <t>4922974259</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:53:27</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44393.78711805555</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32581,10 +31725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:53:26</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44393.78710648148</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32652,10 +31794,8 @@
           <t>4922978031</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:52:56</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44393.78675925926</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32723,10 +31863,8 @@
           <t>4922765833</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:52:53</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44393.78672453704</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32798,10 +31936,8 @@
           <t>4922765833</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:51:42</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44393.78590277778</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32873,10 +32009,8 @@
           <t>4922959936</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:51:26</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44393.78571759259</v>
       </c>
       <c r="I442" t="n">
         <v>5</v>
@@ -32952,10 +32086,8 @@
           <t>4922962620</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:50:53</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44393.78533564815</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -33031,10 +32163,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:49:37</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44393.78445601852</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -33102,10 +32232,8 @@
           <t>4922720920</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:49:01</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44393.78403935185</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33169,10 +32297,8 @@
           <t>4922765833</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:48:12</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44393.78347222223</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -33248,10 +32374,8 @@
           <t>4922765833</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:47:48</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44393.78319444445</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33323,10 +32447,8 @@
           <t>4922933979</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:47:38</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44393.7830787037</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33410,10 +32532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:47:36</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44393.78305555556</v>
       </c>
       <c r="I449" t="n">
         <v>9</v>
@@ -33477,10 +32597,8 @@
           <t>4922805498</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:46:16</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44393.78212962963</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33556,10 +32674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:46:13</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44393.78209490741</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33635,10 +32751,8 @@
           <t>4922914871</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:45:48</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44393.78180555555</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33702,10 +32816,8 @@
           <t>4922902864</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:45:24</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44393.78152777778</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33785,10 +32897,8 @@
           <t>4922916596</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:44:55</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44393.78119212963</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33860,10 +32970,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:44:54</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44393.78118055555</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33936,10 +33044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:44:37</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44393.7809837963</v>
       </c>
       <c r="I456" t="n">
         <v>2</v>
@@ -34015,10 +33121,8 @@
           <t>4922911494</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:44:32</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44393.78092592592</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -34090,10 +33194,8 @@
           <t>4922827700</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:44:25</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44393.78084490741</v>
       </c>
       <c r="I458" t="n">
         <v>1</v>
@@ -34170,10 +33272,8 @@
           <t>4922903280</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:43:42</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44393.78034722222</v>
       </c>
       <c r="I459" t="n">
         <v>59</v>
@@ -34249,10 +33349,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:43:35</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44393.78026620371</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34320,10 +33418,8 @@
           <t>4922902864</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:43:33</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44393.78024305555</v>
       </c>
       <c r="I461" t="n">
         <v>8</v>
@@ -34400,10 +33496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:43:32</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44393.78023148148</v>
       </c>
       <c r="I462" t="n">
         <v>220</v>
@@ -34479,10 +33573,8 @@
           <t>4922884156</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:43:00</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44393.77986111111</v>
       </c>
       <c r="I463" t="n">
         <v>5</v>
@@ -34562,10 +33654,8 @@
           <t>4922894613</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:42:53</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44393.77978009259</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34638,10 +33728,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:42:17</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44393.77936342593</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34709,10 +33797,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:42:11</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44393.77929398148</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34784,10 +33870,8 @@
           <t>4922884156</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:41:48</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44393.77902777777</v>
       </c>
       <c r="I467" t="n">
         <v>12</v>
@@ -34859,10 +33943,8 @@
           <t>4922885890</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:41:00</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44393.77847222222</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34926,10 +34008,8 @@
           <t>4922890002</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:40:57</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44393.7784375</v>
       </c>
       <c r="I469" t="n">
         <v>3</v>
@@ -35006,10 +34086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:40:32</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44393.77814814815</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -35077,10 +34155,8 @@
           <t>4922867378</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:39:18</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44393.77729166667</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35144,10 +34220,8 @@
           <t>4922720920</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:38:37</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44393.77681712963</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -35211,10 +34285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:37:29</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44393.77603009259</v>
       </c>
       <c r="I473" t="n">
         <v>1</v>
@@ -35286,10 +34358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:37:28</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44393.77601851852</v>
       </c>
       <c r="I474" t="n">
         <v>1</v>
@@ -35353,10 +34423,8 @@
           <t>4922850995</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:36:59</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44393.77568287037</v>
       </c>
       <c r="I475" t="n">
         <v>1</v>
@@ -35424,10 +34492,8 @@
           <t>4922839426</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:36:32</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44393.77537037037</v>
       </c>
       <c r="I476" t="n">
         <v>1</v>
@@ -35491,10 +34557,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:35:46</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44393.77483796296</v>
       </c>
       <c r="I477" t="n">
         <v>6</v>
@@ -35558,10 +34622,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:35:33</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44393.7746875</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35629,10 +34691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:34:20</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44393.77384259259</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35708,10 +34768,8 @@
           <t>4922823828</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:34:10</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44393.77372685185</v>
       </c>
       <c r="I480" t="n">
         <v>6</v>
@@ -35787,10 +34845,8 @@
           <t>4922823684</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:34:07</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44393.77369212963</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35858,10 +34914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:34:04</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44393.77365740741</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35929,10 +34983,8 @@
           <t>4922827700</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:33:54</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44393.77354166667</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -36008,10 +35060,8 @@
           <t>4922814555</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:33:51</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44393.77350694445</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -36083,10 +35133,8 @@
           <t>4922825399</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:33:02</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44393.77293981481</v>
       </c>
       <c r="I485" t="n">
         <v>44</v>
@@ -36154,10 +35202,8 @@
           <t>4922819302</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:33:00</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44393.77291666667</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36233,10 +35279,8 @@
           <t>4922814555</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:32:42</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44393.77270833333</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36308,10 +35352,8 @@
           <t>4922814197</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:32:35</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44393.77262731481</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36375,10 +35417,8 @@
           <t>4922809198</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:32:09</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44393.77232638889</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -36454,10 +35494,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:31:37</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44393.77195601852</v>
       </c>
       <c r="I490" t="n">
         <v>1</v>
@@ -36529,10 +35567,8 @@
           <t>4922765833</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:31:33</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44393.77190972222</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36596,10 +35632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:30:51</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44393.77142361111</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36663,10 +35697,8 @@
           <t>4922805498</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:30:34</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44393.77122685185</v>
       </c>
       <c r="I493" t="n">
         <v>3</v>
@@ -36734,10 +35766,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:30:27</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44393.77114583334</v>
       </c>
       <c r="I494" t="n">
         <v>1</v>
@@ -36809,10 +35839,8 @@
           <t>4922765833</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:29:58</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44393.77081018518</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36888,10 +35916,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:29:45</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44393.77065972222</v>
       </c>
       <c r="I496" t="n">
         <v>2</v>
@@ -36959,10 +35985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:29:27</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44393.77045138889</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -37038,10 +36062,8 @@
           <t>4922688321</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:29:04</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44393.77018518518</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -37105,10 +36127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:28:40</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44393.7699074074</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -37185,10 +36205,8 @@
           <t>4922783829</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:28:39</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44393.76989583333</v>
       </c>
       <c r="I500" t="n">
         <v>10</v>
@@ -37257,10 +36275,8 @@
           <t>4922783555</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:28:33</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44393.76982638889</v>
       </c>
       <c r="I501" t="n">
         <v>59</v>
@@ -37333,10 +36349,8 @@
           <t>4922783179</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:28:24</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44393.76972222222</v>
       </c>
       <c r="I502" t="n">
         <v>5</v>
@@ -37412,10 +36426,8 @@
           <t>4922782872</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:28:18</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44393.76965277778</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37491,10 +36503,8 @@
           <t>4922782790</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:28:16</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44393.76962962963</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37562,10 +36572,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:28:09</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44393.76954861111</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37637,10 +36645,8 @@
           <t>4922779326</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:27:52</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44393.76935185185</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37712,10 +36718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:27:44</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44393.76925925926</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37779,10 +36783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:27:08</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44393.7688425926</v>
       </c>
       <c r="I508" t="n">
         <v>3</v>
@@ -37858,10 +36860,8 @@
           <t>4922777323</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:27:01</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44393.76876157407</v>
       </c>
       <c r="I509" t="n">
         <v>39</v>
@@ -37925,10 +36925,8 @@
           <t>4922775466</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:26:15</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44393.76822916666</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -38000,10 +36998,8 @@
           <t>4922771288</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:26:11</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44393.76818287037</v>
       </c>
       <c r="I511" t="n">
         <v>3</v>
@@ -38075,10 +37071,8 @@
           <t>4922765833</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:25:38</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44393.76780092593</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -38142,10 +37136,8 @@
           <t>4922763871</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:25:33</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44393.76774305556</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38213,10 +37205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:25:09</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44393.76746527778</v>
       </c>
       <c r="I514" t="n">
         <v>2</v>
@@ -38287,10 +37277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:24:52</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44393.76726851852</v>
       </c>
       <c r="I515" t="n">
         <v>82</v>
@@ -38354,10 +37342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:24:37</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44393.76709490741</v>
       </c>
       <c r="I516" t="n">
         <v>5</v>
@@ -38433,10 +37419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:24:29</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44393.76700231482</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38496,10 +37480,8 @@
           <t>4922756515</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:24:25</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44393.76695601852</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38567,10 +37549,8 @@
           <t>4922756439</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:24:24</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44393.76694444445</v>
       </c>
       <c r="I519" t="n">
         <v>1</v>
@@ -38647,10 +37627,8 @@
           <t>4922761076</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:24:19</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44393.76688657407</v>
       </c>
       <c r="I520" t="n">
         <v>13</v>
@@ -38726,10 +37704,8 @@
           <t>4922751927</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:24:10</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44393.76678240741</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38793,10 +37769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:24:03</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44393.76670138889</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38872,10 +37846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:23:43</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44393.76646990741</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38935,10 +37907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:37</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44393.76570601852</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -39002,10 +37972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:34</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44393.7656712963</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -39073,10 +38041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:31</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44393.76563657408</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -39152,10 +38118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:29</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44393.76561342592</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -39227,10 +38191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:25</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44393.76556712963</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39298,10 +38260,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:20</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44393.76550925926</v>
       </c>
       <c r="I529" t="n">
         <v>1</v>
@@ -39373,10 +38333,8 @@
           <t>4922741313</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:16</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44393.76546296296</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39440,10 +38398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:11</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44393.76540509259</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39507,10 +38463,8 @@
           <t>4922736479</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:07</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44393.7653587963</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39586,10 +38540,8 @@
           <t>4922733503</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:06</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44393.76534722222</v>
       </c>
       <c r="I533" t="n">
         <v>3</v>
@@ -39653,10 +38605,8 @@
           <t>4922733503</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:05</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44393.76533564815</v>
       </c>
       <c r="I534" t="n">
         <v>4</v>
@@ -39732,10 +38682,8 @@
           <t>4922735698</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:21:50</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44393.76516203704</v>
       </c>
       <c r="I535" t="n">
         <v>1</v>
@@ -39803,10 +38751,8 @@
           <t>4922729765</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:21:31</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44393.76494212963</v>
       </c>
       <c r="I536" t="n">
         <v>2</v>
@@ -39878,10 +38824,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:21:28</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44393.76490740741</v>
       </c>
       <c r="I537" t="n">
         <v>1</v>
@@ -39953,10 +38897,8 @@
           <t>4922733580</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:21:26</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44393.76488425926</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -40024,10 +38966,8 @@
           <t>4922729427</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:21:23</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44393.76484953704</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -40091,10 +39031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:21:22</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44393.76483796296</v>
       </c>
       <c r="I540" t="n">
         <v>1</v>
@@ -40158,10 +39096,8 @@
           <t>4922720920</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:21:18</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44393.76479166667</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -40229,10 +39165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:21:16</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44393.76476851852</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40300,10 +39234,8 @@
           <t>4922723318</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:21:01</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44393.76459490741</v>
       </c>
       <c r="I543" t="n">
         <v>1</v>
@@ -40375,10 +39307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:20:56</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44393.76453703704</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40454,10 +39384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:20:45</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44393.76440972222</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40533,10 +39461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:20:39</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44393.76434027778</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40612,10 +39538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:20:39</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44393.76434027778</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40675,10 +39599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:20:29</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44393.76422453704</v>
       </c>
       <c r="I548" t="n">
         <v>1</v>
@@ -40754,10 +39676,8 @@
           <t>4922722062</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:20:29</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44393.76422453704</v>
       </c>
       <c r="I549" t="n">
         <v>3</v>
@@ -40833,10 +39753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:20:20</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44393.76412037037</v>
       </c>
       <c r="I550" t="n">
         <v>9</v>
@@ -40908,10 +39826,8 @@
           <t>4922730475</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:20:15</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44393.7640625</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40983,10 +39899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:20:12</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44393.76402777778</v>
       </c>
       <c r="I552" t="n">
         <v>1058</v>
@@ -41062,10 +39976,8 @@
           <t>4922725927</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:20:04</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44393.76393518518</v>
       </c>
       <c r="I553" t="n">
         <v>1</v>
@@ -41141,10 +40053,8 @@
           <t>4922720920</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:20:00</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44393.76388888889</v>
       </c>
       <c r="I554" t="n">
         <v>15</v>
@@ -41216,10 +40126,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:19:34</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44393.76358796296</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -41291,10 +40199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:19:33</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44393.76357638889</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41366,10 +40272,8 @@
           <t>4922717895</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:19:16</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44393.76337962963</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41437,10 +40341,8 @@
           <t>4922713677</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:19:14</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44393.76335648148</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41504,10 +40406,8 @@
           <t>4922713495</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:19:10</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44393.76331018518</v>
       </c>
       <c r="I559" t="n">
         <v>1</v>
@@ -41579,10 +40479,8 @@
           <t>4922713031</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:59</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44393.76318287037</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41654,10 +40552,8 @@
           <t>4922708620</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:59</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44393.76318287037</v>
       </c>
       <c r="I561" t="n">
         <v>2</v>
@@ -41717,10 +40613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:54</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44393.763125</v>
       </c>
       <c r="I562" t="n">
         <v>2</v>
@@ -41792,10 +40686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:50</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44393.76307870371</v>
       </c>
       <c r="I563" t="n">
         <v>209</v>
@@ -41855,10 +40747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:37</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44393.76292824074</v>
       </c>
       <c r="I564" t="n">
         <v>2</v>
@@ -41937,10 +40827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:24</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44393.76277777777</v>
       </c>
       <c r="I565" t="n">
         <v>3</v>
@@ -42000,10 +40888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:17</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44393.76269675926</v>
       </c>
       <c r="I566" t="n">
         <v>1</v>
@@ -42063,10 +40949,8 @@
           <t>4922711130</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:17</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44393.76269675926</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -42134,10 +41018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:11</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44393.76262731481</v>
       </c>
       <c r="I568" t="n">
         <v>1</v>
@@ -42197,10 +41079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:07</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44393.76258101852</v>
       </c>
       <c r="I569" t="n">
         <v>2311</v>
@@ -42280,10 +41160,8 @@
           <t>4922710623</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:06</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44393.76256944444</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42363,10 +41241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:04</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44393.7625462963</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42426,10 +41302,8 @@
           <t>4922710433</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:01</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44393.76251157407</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42505,10 +41379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:00</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44393.7625</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42584,10 +41456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:58</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44393.76247685185</v>
       </c>
       <c r="I574" t="n">
         <v>401</v>
@@ -42663,10 +41533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:38</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44393.76224537037</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42736,10 +41604,8 @@
           <t>4922699000</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:29</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44393.7621412037</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42811,10 +41677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:26</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44393.76210648148</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42886,10 +41750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:19</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44393.76202546297</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42961,10 +41823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:16</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44393.76199074074</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -43036,10 +41896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:10</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44393.7619212963</v>
       </c>
       <c r="I580" t="n">
         <v>30</v>
@@ -43111,10 +41969,8 @@
           <t>4922693827</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:16:59</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44393.76179398148</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -43189,10 +42045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:16:52</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44393.76171296297</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -43260,10 +42114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:16:34</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44393.76150462963</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43339,10 +42191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:16:31</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44393.7614699074</v>
       </c>
       <c r="I584" t="n">
         <v>5</v>
@@ -43410,10 +42260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:16:23</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44393.76137731481</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43477,10 +42325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:16:19</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44393.76133101852</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43556,10 +42402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:16:08</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44393.7612037037</v>
       </c>
       <c r="I587" t="n">
         <v>1</v>
@@ -43631,10 +42475,8 @@
           <t>4922684998</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:15:59</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44393.76109953703</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43713,10 +42555,8 @@
           <t>4922674571</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:15:56</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44393.76106481482</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43781,10 +42621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:15:44</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44393.76092592593</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43860,10 +42698,8 @@
           <t>4922688321</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:15:41</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44393.7608912037</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43927,10 +42763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:15:11</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44393.76054398148</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43994,10 +42828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:15:08</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44393.76050925926</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -44069,10 +42901,8 @@
           <t>4922674571</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:15:08</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44393.76050925926</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -44140,10 +42970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:15:05</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44393.76047453703</v>
       </c>
       <c r="I595" t="n">
         <v>3</v>
@@ -44207,10 +43035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:54</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44393.76034722223</v>
       </c>
       <c r="I596" t="n">
         <v>1</v>
@@ -44274,10 +43100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:52</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44393.76032407407</v>
       </c>
       <c r="I597" t="n">
         <v>1</v>
@@ -44345,10 +43169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:49</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44393.76028935185</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -44421,10 +43243,8 @@
           <t>4922678596</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:46</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44393.76025462963</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44489,10 +43309,8 @@
           <t>4922678361</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:40</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44393.76018518519</v>
       </c>
       <c r="I600" t="n">
         <v>42</v>
@@ -44560,10 +43378,8 @@
           <t>4922685349</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:34</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44393.76011574074</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44635,10 +43451,8 @@
           <t>4922681089</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:33</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44393.76010416666</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44706,10 +43520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:26</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44393.76002314815</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44781,10 +43593,8 @@
           <t>4922674913</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:24</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44393.76</v>
       </c>
       <c r="I604" t="n">
         <v>1</v>
@@ -44856,10 +43666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:23</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44393.75998842593</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44935,10 +43743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:21</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44393.75996527778</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -45010,10 +43816,8 @@
           <t>4922674746</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:20</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44393.7599537037</v>
       </c>
       <c r="I607" t="n">
         <v>2</v>
@@ -45081,10 +43885,8 @@
           <t>4922674603</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:17</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44393.75991898148</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -45156,10 +43958,8 @@
           <t>4922674571</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:17</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44393.75991898148</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -45224,10 +44024,8 @@
           <t>4922674332</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:11</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44393.75984953704</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45299,10 +44097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:09</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44393.75982638889</v>
       </c>
       <c r="I611" t="n">
         <v>8</v>
@@ -45374,10 +44170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:59</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44393.75971064815</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -45441,10 +44235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:55</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44393.75966435186</v>
       </c>
       <c r="I613" t="n">
         <v>1</v>
@@ -45512,10 +44304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:47</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44393.75957175926</v>
       </c>
       <c r="I614" t="n">
         <v>1</v>
@@ -45591,10 +44381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:45</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44393.75954861111</v>
       </c>
       <c r="I615" t="n">
         <v>1</v>
@@ -45670,10 +44458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:42</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44393.75951388889</v>
       </c>
       <c r="I616" t="n">
         <v>8</v>
@@ -45745,10 +44531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:35</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44393.75943287037</v>
       </c>
       <c r="I617" t="n">
         <v>87</v>
@@ -45817,10 +44601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:35</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44393.75943287037</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45885,10 +44667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:31</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44393.75938657407</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45964,10 +44744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:31</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44393.75938657407</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -46043,10 +44821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:25</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44393.75931712963</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -46122,10 +44898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:22</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44393.75928240741</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -46189,10 +44963,8 @@
           <t>4922675250</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:22</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44393.75928240741</v>
       </c>
       <c r="I623" t="n">
         <v>1</v>
@@ -46260,10 +45032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:21</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44393.75927083333</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -46339,10 +45109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:18</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44393.75923611111</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46424,10 +45192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:04</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44393.75907407407</v>
       </c>
       <c r="I626" t="n">
         <v>473</v>
@@ -46491,10 +45257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:03</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44393.7590625</v>
       </c>
       <c r="I627" t="n">
         <v>1</v>
@@ -46564,10 +45328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:48</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44393.75888888889</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46639,10 +45401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:47</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44393.75887731482</v>
       </c>
       <c r="I629" t="n">
         <v>1</v>
@@ -46710,10 +45470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:47</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44393.75887731482</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46785,10 +45543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:44</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44393.75884259259</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46860,10 +45616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:43</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44393.75883101852</v>
       </c>
       <c r="I632" t="n">
         <v>1</v>
@@ -46939,10 +45693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:36</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44393.75875</v>
       </c>
       <c r="I633" t="n">
         <v>144</v>
@@ -47006,10 +45758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:30</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44393.75868055555</v>
       </c>
       <c r="I634" t="n">
         <v>1</v>
@@ -47077,10 +45827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:23</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44393.75859953704</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -47144,10 +45892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:23</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44393.75859953704</v>
       </c>
       <c r="I636" t="n">
         <v>3</v>
@@ -47219,10 +45965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:22</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44393.75858796296</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -47298,10 +46042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:22</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44393.75858796296</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -47377,10 +46119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:21</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44393.75857638889</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -47448,10 +46188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:21</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44393.75857638889</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -47523,10 +46261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:17</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44393.75853009259</v>
       </c>
       <c r="I641" t="n">
         <v>1</v>
@@ -47594,10 +46330,8 @@
           <t>4922658987</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:14</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44393.75849537037</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47661,10 +46395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:08</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44393.75842592592</v>
       </c>
       <c r="I643" t="n">
         <v>13</v>
@@ -47736,10 +46468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:03</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44393.75836805555</v>
       </c>
       <c r="I644" t="n">
         <v>49</v>
@@ -47815,10 +46545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:02</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44393.75835648148</v>
       </c>
       <c r="I645" t="n">
         <v>1</v>
@@ -47894,10 +46622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:00</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44393.75833333333</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
@@ -47970,10 +46696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:54</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44393.75826388889</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -48049,10 +46773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:54</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44393.75826388889</v>
       </c>
       <c r="I648" t="n">
         <v>552</v>
@@ -48120,10 +46842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:54</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44393.75826388889</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -48188,10 +46908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:53</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44393.75825231482</v>
       </c>
       <c r="I650" t="n">
         <v>1</v>
@@ -48259,10 +46977,8 @@
           <t>4922653875</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:53</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44393.75825231482</v>
       </c>
       <c r="I651" t="n">
         <v>1</v>
@@ -48330,10 +47046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:51</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44393.75822916667</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -48397,10 +47111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:50</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44393.75821759259</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -48477,10 +47189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:48</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44393.75819444445</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -48548,10 +47258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:44</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44393.75814814815</v>
       </c>
       <c r="I655" t="n">
         <v>1</v>
@@ -48611,10 +47319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:43</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44393.75813657408</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -48686,10 +47392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:43</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44393.75813657408</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -48757,10 +47461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:39</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44393.75809027778</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
@@ -48824,10 +47526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:39</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44393.75809027778</v>
       </c>
       <c r="I659" t="n">
         <v>7</v>
@@ -48903,10 +47603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:36</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44393.75805555555</v>
       </c>
       <c r="I660" t="n">
         <v>1</v>
@@ -48982,10 +47680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:36</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44393.75805555555</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
@@ -49056,10 +47752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:35</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44393.75804398148</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -49137,10 +47831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:34</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44393.75803240741</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
@@ -49216,10 +47908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:34</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44393.75803240741</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
@@ -49287,10 +47977,8 @@
           <t>4922653025</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:33</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44393.75802083333</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -49358,10 +48046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:30</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44393.75798611111</v>
       </c>
       <c r="I666" t="n">
         <v>18</v>
@@ -49429,10 +48115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:27</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44393.75795138889</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -49500,10 +48184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:26</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44393.75793981482</v>
       </c>
       <c r="I668" t="n">
         <v>24</v>
@@ -49571,10 +48253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:25</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44393.75792824074</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49650,10 +48330,8 @@
           <t>4922656682</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:23</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44393.75790509259</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
@@ -49721,10 +48399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:22</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44393.75789351852</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -49801,10 +48477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:21</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44393.75788194445</v>
       </c>
       <c r="I672" t="n">
         <v>3</v>
@@ -49880,10 +48554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:21</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44393.75788194445</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
@@ -49952,10 +48624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:19</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44393.7578587963</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
@@ -50023,10 +48693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:18</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44393.75784722222</v>
       </c>
       <c r="I675" t="n">
         <v>4</v>
@@ -50098,10 +48766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:17</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44393.75783564815</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
@@ -50169,10 +48835,8 @@
           <t>4922660219</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:14</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44393.75780092592</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
@@ -50244,10 +48908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:12</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44393.75777777778</v>
       </c>
       <c r="I678" t="n">
         <v>9</v>
@@ -50311,10 +48973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:11</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44393.7577662037</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
@@ -50382,10 +49042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:09</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44393.75774305555</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -50461,10 +49119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:08</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44393.75773148148</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -50532,10 +49188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:05</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44393.75769675926</v>
       </c>
       <c r="I682" t="n">
         <v>5</v>
@@ -50611,10 +49265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:04</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44393.75768518518</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
@@ -50690,10 +49342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:02</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44393.75766203704</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
@@ -50765,10 +49415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:01</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44393.75765046296</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
@@ -50836,10 +49484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:58</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44393.75761574074</v>
       </c>
       <c r="I686" t="n">
         <v>1</v>
@@ -50903,10 +49549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:57</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44393.75760416667</v>
       </c>
       <c r="I687" t="n">
         <v>1</v>
@@ -50974,10 +49618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:55</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44393.75758101852</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
@@ -51045,10 +49687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:53</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44393.75755787037</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -51124,10 +49764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:47</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44393.75748842592</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
@@ -51204,10 +49842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:46</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44393.75747685185</v>
       </c>
       <c r="I691" t="n">
         <v>1</v>
@@ -51275,10 +49911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:44</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44393.75745370371</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
@@ -51354,10 +49988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:43</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44393.75744212963</v>
       </c>
       <c r="I693" t="n">
         <v>1</v>
@@ -51429,10 +50061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:38</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44393.75738425926</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
@@ -51504,10 +50134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:38</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44393.75738425926</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
@@ -51571,10 +50199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:37</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44393.75737268518</v>
       </c>
       <c r="I696" t="n">
         <v>1</v>
@@ -51634,10 +50260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:36</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44393.75736111111</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
@@ -51697,10 +50321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:27</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44393.75725694445</v>
       </c>
       <c r="I698" t="n">
         <v>1</v>
@@ -51776,10 +50398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:26</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44393.75724537037</v>
       </c>
       <c r="I699" t="n">
         <v>52</v>
